--- a/M.XLSX
+++ b/M.XLSX
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>P50</t>
-  </si>
-  <si>
-    <t>P65</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>Прямая</t>
+  </si>
+  <si>
+    <t>Р65</t>
+  </si>
+  <si>
+    <t>Р50</t>
   </si>
 </sst>
 </file>
@@ -370,20 +370,20 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>0.6</v>
